--- a/计算合集.xlsx
+++ b/计算合集.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D3B01710-38F1-4E1F-9ABC-CD67856E8B25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4AA53A41-492E-4555-AECB-11275169D8CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO分配" sheetId="2" r:id="rId1"/>
     <sheet name="堆垛机参数" sheetId="1" r:id="rId2"/>
-    <sheet name="电机选型" sheetId="4" r:id="rId3"/>
-    <sheet name="变频器MM440" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="电机选型" sheetId="4" r:id="rId4"/>
+    <sheet name="变频器MM440" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="199">
   <si>
     <t>I0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,13 +610,112 @@
   <si>
     <t>p=F v/n1 n2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本参数</t>
+  </si>
+  <si>
+    <t>操作模式：手动操作/自动操作/联机操作。</t>
+  </si>
+  <si>
+    <t>结构形式：双立柱</t>
+  </si>
+  <si>
+    <t>额定载荷：Max=100</t>
+  </si>
+  <si>
+    <t>单元尺寸约：600×500×400（宽×深×高mm）(定制)</t>
+  </si>
+  <si>
+    <t>机器重量：700kg</t>
+  </si>
+  <si>
+    <t>定位方式</t>
+  </si>
+  <si>
+    <t>行走装置</t>
+  </si>
+  <si>
+    <t>d. 加减速度：1 m/s2</t>
+  </si>
+  <si>
+    <t>升降装置</t>
+  </si>
+  <si>
+    <t>b. 正常速度：30 m/min</t>
+  </si>
+  <si>
+    <t>货叉装置</t>
+  </si>
+  <si>
+    <t>g. 运行重复回位精度：±5mm</t>
+  </si>
+  <si>
+    <t>h. 货叉上平面高低差：≤2mm</t>
+  </si>
+  <si>
+    <t>认址器</t>
+  </si>
+  <si>
+    <t>光电开光</t>
+  </si>
+  <si>
+    <t>旋转编码器</t>
+  </si>
+  <si>
+    <t>激光测距传感器</t>
+  </si>
+  <si>
+    <t>认址方式</t>
+  </si>
+  <si>
+    <t>相对认址</t>
+  </si>
+  <si>
+    <t>绝对认址</t>
+  </si>
+  <si>
+    <t>可靠性</t>
+  </si>
+  <si>
+    <t>较低</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>较高</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>认址精度</t>
+  </si>
+  <si>
+    <t>格</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mm　</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>反射式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,8 +784,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,8 +812,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -722,12 +842,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -743,15 +983,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1635,221 +1929,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="62" style="6" customWidth="1"/>
-    <col min="3" max="3" width="57.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="56.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="50.875" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="9" t="s">
         <v>149</v>
       </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9" t="s">
         <v>156</v>
       </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="9" t="s">
         <v>127</v>
       </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9" t="s">
         <v>129</v>
       </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>130</v>
       </c>
+      <c r="D9" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>133</v>
       </c>
+      <c r="D12" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="9" t="s">
         <v>135</v>
       </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="9" t="s">
         <v>136</v>
       </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="13" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" s="9" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25">
-      <c r="A24" s="9" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25">
+      <c r="A24" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="142.5">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="142.5">
+      <c r="A32" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1857,11 +2283,11 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" ht="99.75">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1869,15 +2295,15 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2" ht="15.75">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" ht="99.75">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1885,12 +2311,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A1:A8"/>
+    <mergeCell ref="D1:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1904,6 +2335,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7DB3F-6C62-451A-8090-9E901A61C48D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="6" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1"/>
+    <row r="2" spans="1:6">
+      <c r="B2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="B7" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f>15000*((0.1*0.05+2*0.3)/0.3)/900</f>
+        <v>33.611111111111114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD95F8B-6984-4350-88E6-4817F5B3ADA9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1933,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389FAA3-D3BD-4CE3-BEFC-B565A92EEDA7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1945,5 +2507,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>